--- a/AI.xlsx
+++ b/AI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PST\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{509DD53B-6C43-438E-A13F-C13027EB702F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22D54180-3A03-4A0C-A2FA-8B477F4901E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11290" yWindow="60" windowWidth="12990" windowHeight="15090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="20" windowWidth="12990" windowHeight="15090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -362,8 +362,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1513"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1215" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F895" sqref="F895"/>
+    <sheetView tabSelected="1" topLeftCell="A498" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F527" sqref="F527"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10913,7 +10913,7 @@
         <v>1</v>
       </c>
       <c r="F527">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="528" spans="1:6" x14ac:dyDescent="0.35">
